--- a/file.xlsx
+++ b/file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">phone_number</t>
   </si>
@@ -28,10 +28,19 @@
     <t xml:space="preserve">message</t>
   </si>
   <si>
-    <t xml:space="preserve">Message 333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message 444</t>
+    <t xml:space="preserve">media_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message 100 using thread to make process fastest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/alim/Pictures/eggs.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message 200 using thread to make process fastest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/alim/Pictures/Hapus_Mango.jpg</t>
   </si>
 </sst>
 </file>
@@ -107,8 +116,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,17 +142,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="141.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -149,21 +162,30 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>12623286740</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>12623286740</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">phone_number</t>
   </si>
@@ -28,10 +28,7 @@
     <t xml:space="preserve">message</t>
   </si>
   <si>
-    <t xml:space="preserve">Last 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last 2</t>
+    <t xml:space="preserve">script test 333</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,12 +160,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>19293635946</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">message</t>
   </si>
   <si>
-    <t xml:space="preserve">script test 333</t>
+    <t xml:space="preserve">script auto run test</t>
   </si>
 </sst>
 </file>

--- a/file.xlsx
+++ b/file.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">message</t>
   </si>
   <si>
-    <t xml:space="preserve">script auto run test</t>
+    <t xml:space="preserve">script auto run test 1</t>
   </si>
 </sst>
 </file>

--- a/file.xlsx
+++ b/file.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">message</t>
   </si>
   <si>
-    <t xml:space="preserve">script auto run test 1</t>
+    <t xml:space="preserve">111111abc</t>
   </si>
 </sst>
 </file>
